--- a/BTC记录.xlsx
+++ b/BTC记录.xlsx
@@ -1,31 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="11925"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="f778995e-5ab0-11ef-87fa-0e89d0e" sheetId="2" r:id="rId2"/>
-    <sheet name="212597ec-7952-11ef-b6ae-0e3291b" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="f778995e-5ab0-11ef-87fa-0e89d0e" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="212597ec-7952-11ef-b6ae-0e3291b" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'f778995e-5ab0-11ef-87fa-0e89d0e'!$A$1:$O$51</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'f778995e-5ab0-11ef-87fa-0e89d0e'!$A$1:$O$51</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -34,1219 +27,392 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="66">
   <si>
-    <t>APP上显示BTC等值买入</t>
+    <t xml:space="preserve">APP上显示BTC等值买入</t>
   </si>
   <si>
-    <t>SOL配对利润</t>
+    <t xml:space="preserve">SOL配对利润</t>
   </si>
   <si>
-    <t>USDT</t>
+    <t xml:space="preserve">USDT</t>
   </si>
   <si>
-    <t>BTC目前价格</t>
+    <t xml:space="preserve">BTC目前价格</t>
   </si>
   <si>
-    <t>总共投资金额（人民币）</t>
+    <t xml:space="preserve">总共投资金额（人民币）</t>
   </si>
   <si>
-    <t>目前金额（人民币）</t>
+    <t xml:space="preserve">目前金额（人民币）</t>
   </si>
   <si>
-    <t>盈亏</t>
+    <t xml:space="preserve">盈亏</t>
   </si>
   <si>
-    <t>Order Number</t>
+    <t xml:space="preserve">Order Number</t>
   </si>
   <si>
-    <t>Order Type</t>
+    <t xml:space="preserve">Order Type</t>
   </si>
   <si>
-    <t>Asset Type</t>
+    <t xml:space="preserve">Asset Type</t>
   </si>
   <si>
-    <t>Fiat Type</t>
+    <t xml:space="preserve">Fiat Type</t>
   </si>
   <si>
-    <t>Total Price</t>
+    <t xml:space="preserve">Total Price</t>
   </si>
   <si>
-    <t>Price</t>
+    <t xml:space="preserve">Price</t>
   </si>
   <si>
-    <t>Quantity</t>
+    <t xml:space="preserve">Quantity</t>
   </si>
   <si>
-    <t>Exchange rate</t>
+    <t xml:space="preserve">Exchange rate</t>
   </si>
   <si>
-    <t>Maker Fee</t>
+    <t xml:space="preserve">Maker Fee</t>
   </si>
   <si>
-    <t>Maker Fee Rate</t>
+    <t xml:space="preserve">Maker Fee Rate</t>
   </si>
   <si>
-    <t>Taker Fee</t>
+    <t xml:space="preserve">Taker Fee</t>
   </si>
   <si>
-    <t>Taker Fee Rate</t>
+    <t xml:space="preserve">Taker Fee Rate</t>
   </si>
   <si>
-    <t>Couterparty</t>
+    <t xml:space="preserve">Couterparty</t>
   </si>
   <si>
-    <t>Status</t>
+    <t xml:space="preserve">Status</t>
   </si>
   <si>
-    <t>Created Time</t>
+    <t xml:space="preserve">Created Time</t>
   </si>
   <si>
-    <t>Buy</t>
+    <t xml:space="preserve">Buy</t>
   </si>
   <si>
-    <t>CNY</t>
+    <t xml:space="preserve">CNY</t>
   </si>
   <si>
-    <t>NT7777</t>
+    <t xml:space="preserve">NT7777</t>
   </si>
   <si>
-    <t>Completed</t>
+    <t xml:space="preserve">Completed</t>
   </si>
   <si>
-    <t>荣华商行</t>
+    <t xml:space="preserve">荣华商行</t>
   </si>
   <si>
-    <t>USDC</t>
+    <t xml:space="preserve">USDC</t>
   </si>
   <si>
-    <t>卓悦商行</t>
+    <t xml:space="preserve">卓悦商行</t>
   </si>
   <si>
-    <t>Sell</t>
+    <t xml:space="preserve">Sell</t>
   </si>
   <si>
-    <t>珠三角淘金客</t>
+    <t xml:space="preserve">珠三角淘金客</t>
   </si>
   <si>
-    <t>诚信商家BAN</t>
+    <t xml:space="preserve">诚信商家BAN</t>
   </si>
   <si>
-    <t>浮动</t>
+    <t xml:space="preserve">浮动</t>
   </si>
   <si>
-    <t>Cancelled</t>
+    <t xml:space="preserve">Cancelled</t>
   </si>
   <si>
-    <t>盘满钵满-冻结包赔</t>
+    <t xml:space="preserve">盘满钵满-冻结包赔</t>
   </si>
   <si>
-    <t>得心应手-冻结包赔</t>
+    <t xml:space="preserve">得心应手-冻结包赔</t>
   </si>
   <si>
-    <t>鸿运商行--诚信安全</t>
+    <t xml:space="preserve">鸿运商行--诚信安全</t>
   </si>
   <si>
-    <t>嘉诚资本</t>
+    <t xml:space="preserve">嘉诚资本</t>
   </si>
   <si>
-    <t>鸿祥元商行</t>
+    <t xml:space="preserve">鸿祥元商行</t>
   </si>
   <si>
-    <t>八方财聚商行</t>
+    <t xml:space="preserve">八方财聚商行</t>
   </si>
   <si>
-    <t>精锐超凡商行</t>
+    <t xml:space="preserve">精锐超凡商行</t>
   </si>
   <si>
-    <t>财色兼收-安全神盾-冻结包赔</t>
+    <t xml:space="preserve">财色兼收-安全神盾-冻结包赔</t>
   </si>
   <si>
-    <t>币king1688</t>
+    <t xml:space="preserve">币king1688</t>
   </si>
   <si>
-    <t>森淼金融商行</t>
+    <t xml:space="preserve">森淼金融商行</t>
   </si>
   <si>
-    <t>青山商行</t>
+    <t xml:space="preserve">青山商行</t>
   </si>
   <si>
-    <t>西瓜诚信商行</t>
+    <t xml:space="preserve">西瓜诚信商行</t>
   </si>
   <si>
-    <t>Spicy-Fathead-Fish</t>
+    <t xml:space="preserve">Spicy-Fathead-Fish</t>
   </si>
   <si>
-    <t>江浙沪商行-资金安全-实名支付</t>
+    <t xml:space="preserve">江浙沪商行-资金安全-实名支付</t>
   </si>
   <si>
-    <t>海纳川商贸-黑资必究</t>
+    <t xml:space="preserve">海纳川商贸-黑资必究</t>
   </si>
   <si>
-    <t>欣悦惠商行</t>
+    <t xml:space="preserve">欣悦惠商行</t>
   </si>
   <si>
-    <t>赫尔墨斯商会</t>
+    <t xml:space="preserve">赫尔墨斯商会</t>
   </si>
   <si>
-    <t>凯利商行</t>
+    <t xml:space="preserve">凯利商行</t>
   </si>
   <si>
-    <t>千禧商贸-实名付款-资金安全</t>
+    <t xml:space="preserve">千禧商贸-实名付款-资金安全</t>
   </si>
   <si>
-    <t>信誉刚哥-资金安全-实名支付</t>
+    <t xml:space="preserve">信誉刚哥-资金安全-实名支付</t>
   </si>
   <si>
-    <t>Coconutbuiness</t>
+    <t xml:space="preserve">Coconutbuiness</t>
   </si>
   <si>
-    <t>龙来运转商贸</t>
+    <t xml:space="preserve">龙来运转商贸</t>
   </si>
   <si>
-    <t>招财猫的小铃铛-资金安全</t>
+    <t xml:space="preserve">招财猫的小铃铛-资金安全</t>
   </si>
   <si>
-    <t>旺仔商铺</t>
+    <t xml:space="preserve">旺仔商铺</t>
   </si>
   <si>
-    <t>大有资本</t>
+    <t xml:space="preserve">大有资本</t>
   </si>
   <si>
-    <t>鑫旺资本</t>
+    <t xml:space="preserve">鑫旺资本</t>
   </si>
   <si>
-    <t>纸钞屋贸易</t>
+    <t xml:space="preserve">纸钞屋贸易</t>
   </si>
   <si>
-    <t>泰达商行--诚信安全</t>
+    <t xml:space="preserve">泰达商行--诚信安全</t>
   </si>
   <si>
-    <t>雅辉阁商行</t>
+    <t xml:space="preserve">雅辉阁商行</t>
   </si>
   <si>
-    <t>野山猫</t>
+    <t xml:space="preserve">野山猫</t>
   </si>
   <si>
-    <t>派大星-资金安全</t>
+    <t xml:space="preserve">派大星-资金安全</t>
   </si>
   <si>
-    <t>优优好物</t>
+    <t xml:space="preserve">优优好物</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-m\-d\ h:mm"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="0"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
-    <border>
+  <borders count="1">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPS">
   <a:themeElements>
     <a:clrScheme name="WPS">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4874CB"/>
+        <a:srgbClr val="4874cb"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EE822F"/>
+        <a:srgbClr val="ee822f"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="F2BA02"/>
+        <a:srgbClr val="f2ba02"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="75BD42"/>
+        <a:srgbClr val="75bd42"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="30C0B4"/>
+        <a:srgbClr val="30c0b4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="E54C5E"/>
+        <a:srgbClr val="e54c5e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0026e5"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="7e1fad"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="WPS">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1263,77 +429,44 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="2700000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="2700000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1343,15 +476,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -1359,7 +490,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -1367,971 +497,993 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="11.5"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
-    <col min="6" max="6" width="9.375"/>
-    <col min="8" max="8" width="12.625"/>
-    <col min="9" max="10" width="11.5"/>
-    <col min="11" max="11" width="9.375"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1">
+    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1">
+      <c r="D1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="0" t="n">
         <v>0.06184138</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="0" t="n">
         <v>6.52</v>
       </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
+      <c r="I1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>418570.33</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0" t="n">
         <v>143.49</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0" t="n">
         <v>147.2</v>
       </c>
-      <c r="I2">
-        <f>H2-G2</f>
+      <c r="I2" s="0" t="n">
+        <f aca="false">H2-G2</f>
         <v>3.70999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <f>E1*E2</f>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">E1*E2</f>
         <v>25884.9668342554</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0" t="n">
         <v>0.045</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>720</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="n">
         <v>720</v>
       </c>
-      <c r="I4">
-        <f>I3*I2</f>
+      <c r="I4" s="0" t="n">
+        <f aca="false">I3*I2</f>
         <v>0.166949999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>720</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="n">
         <v>14.22</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0" t="n">
         <v>0.006624</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="n">
         <v>720</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="I6">
-        <f>I4-I5*2</f>
+      <c r="I6" s="0" t="n">
+        <f aca="false">I4-I5*2</f>
         <v>0.153701999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2" t="n">
         <v>45516</v>
       </c>
-      <c r="D7">
-        <f>SUM(A:A)</f>
+      <c r="D7" s="0" t="n">
+        <f aca="false">SUM(A:A)</f>
         <v>29671.52</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>25860.51</v>
       </c>
-      <c r="F7">
-        <f t="shared" ref="F7:F17" si="0">E7-D7</f>
+      <c r="F7" s="0" t="n">
+        <f aca="false">E7-D7</f>
         <v>-3811.01</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2" t="n">
         <v>45517</v>
       </c>
-      <c r="D8">
-        <f>SUM(A:A)</f>
+      <c r="D8" s="0" t="n">
+        <f aca="false">SUM(A:A)</f>
         <v>29671.52</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>26146.93</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
+      <c r="F8" s="0" t="n">
+        <f aca="false">E8-D8</f>
         <v>-3524.59</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>100</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2" t="n">
         <v>45519</v>
       </c>
-      <c r="D9">
-        <f>SUM(B:B)</f>
+      <c r="D9" s="0" t="n">
+        <f aca="false">SUM(B:B)</f>
         <v>37931.8</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>28964.52</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
+      <c r="F9" s="0" t="n">
+        <f aca="false">E9-D9</f>
         <v>-8967.28</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>33.13</v>
       </c>
-      <c r="B10" s="1">
-        <v>100</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>45530</v>
       </c>
-      <c r="D10">
-        <f>SUM(B:B)</f>
+      <c r="D10" s="0" t="n">
+        <f aca="false">SUM(B:B)</f>
         <v>37931.8</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>30000</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
+      <c r="F10" s="0" t="n">
+        <f aca="false">E10-D10</f>
         <v>-7931.8</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="1" t="n">
         <v>33.13</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2" t="n">
         <v>45532</v>
       </c>
-      <c r="D11">
-        <f>SUM(B:B)</f>
+      <c r="D11" s="0" t="n">
+        <f aca="false">SUM(B:B)</f>
         <v>37931.8</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>29573</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
+      <c r="F11" s="0" t="n">
+        <f aca="false">E11-D11</f>
         <v>-8358.8</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2" t="n">
         <v>45542</v>
       </c>
-      <c r="D12">
-        <f>SUM(B:B)</f>
+      <c r="D12" s="0" t="n">
+        <f aca="false">SUM(B:B)</f>
         <v>37931.8</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>28972</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
+      <c r="F12" s="0" t="n">
+        <f aca="false">E12-D12</f>
         <v>-8959.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2" t="n">
         <v>45548</v>
       </c>
-      <c r="D13">
-        <f>SUM(B:B)</f>
+      <c r="D13" s="0" t="n">
+        <f aca="false">SUM(B:B)</f>
         <v>37931.8</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>30243.83</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>-7687.96999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
+      <c r="F13" s="0" t="n">
+        <f aca="false">E13-D13</f>
+        <v>-7687.97</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2" t="n">
         <v>45555</v>
       </c>
-      <c r="D14">
-        <f>SUM(B:B)</f>
+      <c r="D14" s="0" t="n">
+        <f aca="false">SUM(B:B)</f>
         <v>37931.8</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>31046.96</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
+      <c r="F14" s="0" t="n">
+        <f aca="false">E14-D14</f>
         <v>-6884.84</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2" t="n">
         <v>45558</v>
       </c>
-      <c r="D15">
-        <f>SUM(B:B)</f>
+      <c r="D15" s="0" t="n">
+        <f aca="false">SUM(B:B)</f>
         <v>37931.8</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>32182.63</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>-5749.16999999999</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="0" t="n">
+        <f aca="false">E15-D15</f>
+        <v>-5749.17</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>4564.91</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0" t="n">
         <v>7.26</v>
       </c>
-      <c r="I15">
-        <f>G15*H15</f>
+      <c r="I15" s="0" t="n">
+        <f aca="false">G15*H15</f>
         <v>33141.2466</v>
       </c>
-      <c r="J15">
-        <f>I15-D15</f>
+      <c r="J15" s="0" t="n">
+        <f aca="false">I15-D15</f>
         <v>-4790.5534</v>
       </c>
-      <c r="K15">
-        <f>I15-D15</f>
+      <c r="K15" s="0" t="n">
+        <f aca="false">I15-D15</f>
         <v>-4790.5534</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="D16">
-        <f>SUM(B:B)</f>
+      <c r="D16" s="0" t="n">
+        <f aca="false">SUM(B:B)</f>
         <v>37931.8</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>36761.16</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>-1170.63999999999</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="0" t="n">
+        <f aca="false">E16-D16</f>
+        <v>-1170.64</v>
+      </c>
+      <c r="G16" s="0" t="n">
         <v>5236.63</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0" t="n">
         <v>7.26</v>
       </c>
-      <c r="I16">
-        <f>H16*G16</f>
+      <c r="I16" s="0" t="n">
+        <f aca="false">H16*G16</f>
         <v>38017.9338</v>
       </c>
-      <c r="J16">
-        <f>I16-D16</f>
+      <c r="J16" s="0" t="n">
+        <f aca="false">I16-D16</f>
         <v>86.1338000000032</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2" t="n">
         <v>45581</v>
       </c>
-      <c r="D17">
-        <f>SUM(B:B)</f>
+      <c r="D17" s="0" t="n">
+        <f aca="false">SUM(B:B)</f>
         <v>37931.8</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>38133.54</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>201.740000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
+      <c r="F17" s="0" t="n">
+        <f aca="false">E17-D17</f>
+        <v>201.739999999998</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2" t="n">
         <v>45624</v>
       </c>
-      <c r="D18">
-        <f>SUM(B:B)</f>
+      <c r="D18" s="0" t="n">
+        <f aca="false">SUM(B:B)</f>
         <v>37931.8</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>41866.21</v>
       </c>
-      <c r="F18">
-        <f>E18-D18</f>
+      <c r="F18" s="0" t="n">
+        <f aca="false">E18-D18</f>
         <v>3934.41</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="1" t="n">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>100</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="C19" s="3" t="n">
+        <v>45632</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">SUM(B:B)</f>
+        <v>37931.8</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>42353.52</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">E19-D19</f>
+        <v>4421.71999999999</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B20" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
+    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="1" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
         <v>3615.39</v>
       </c>
-      <c r="B22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
+      <c r="B22" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
         <v>1800</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="1" t="n">
         <v>3615.39</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
+    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="1" t="n">
         <v>1800</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
+    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="1" t="n">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
+    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1" t="n">
         <v>3000</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
+    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1" t="n">
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>100</v>
-      </c>
-      <c r="B30" s="1">
+    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B30" s="1" t="n">
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
+    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="1" t="n">
         <v>2000</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
+    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="B32" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
+      <c r="B32" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="1" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>100</v>
-      </c>
-      <c r="B35" s="1">
+    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B35" s="1" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
+    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
+    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="B37" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
+      <c r="B37" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="1" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="1">
+    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="n">
         <v>3000</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="1">
+    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="n">
         <v>3000</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="1">
+    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="1">
+    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="1">
+    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="n">
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="1">
+    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="1">
+    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="1">
+    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="1">
+    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="1">
+    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="1">
+    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="1">
+    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="1">
+    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="1" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="1">
+    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="1">
+    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72">
+    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73">
+    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74">
+    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76">
+    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78">
+    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="n">
         <v>98.06</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
-      <c r="B79">
+    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
-      <c r="B80">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81">
+    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="0" t="n">
         <v>2805.89</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="0" t="n">
         <v>20000</v>
       </c>
     </row>
-    <row r="82" spans="2:6">
-      <c r="B82">
-        <v>100</v>
-      </c>
-      <c r="E82">
+    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E82" s="0" t="n">
         <v>2793.29</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="0" t="n">
         <v>20000</v>
       </c>
     </row>
-    <row r="83" spans="2:6">
-      <c r="B83">
-        <v>100</v>
-      </c>
-      <c r="E83">
+    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E83" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="0" t="n">
         <v>7000</v>
       </c>
     </row>
-    <row r="84" spans="2:6">
-      <c r="B84">
-        <v>100</v>
-      </c>
-      <c r="E84">
+    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E84" s="0" t="n">
         <v>1434.72</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
-    <row r="85" spans="2:6">
-      <c r="B85">
+    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="0" t="n">
         <v>721.5</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="0" t="n">
         <v>5000</v>
       </c>
     </row>
-    <row r="86" spans="2:6">
-      <c r="B86">
+    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="0" t="n">
         <v>257.87</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="0" t="n">
         <v>1800</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
-      <c r="B87">
+    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
-      <c r="B88">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89">
+    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
-      <c r="B90">
+    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="n">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="true">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L64" activeCellId="0" sqref="L64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
-    <col min="8" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="17.125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16" style="1" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
-        <v>2.26457903553286e+19</v>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2.26457903553286E+019</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
@@ -2342,22 +1494,22 @@
       <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="1" t="n">
         <v>7.32</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="1" t="n">
         <v>27.32</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -2366,13 +1518,13 @@
       <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="5" t="n">
         <v>45487.5465625</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>2.2645813507186e+19</v>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2.2645813507186E+019</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -2383,22 +1535,22 @@
       <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="1" t="n">
         <v>7.32</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="1" t="n">
         <v>27.32</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -2407,13 +1559,13 @@
       <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="5" t="n">
         <v>45487.6104513889</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>2.26458160596665e+19</v>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2.26458160596665E+019</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
@@ -2424,22 +1576,22 @@
       <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1">
-        <v>100</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <v>7.48</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="n">
         <v>13.36898395</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="H4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -2448,13 +1600,13 @@
       <c r="N4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="5" t="n">
         <v>45487.6174884259</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>2.26461425293624e+19</v>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2.26461425293624E+019</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
@@ -2465,22 +1617,22 @@
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="n">
         <v>720</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1" t="n">
         <v>7.29</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="n">
         <v>98.76</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -2489,13 +1641,13 @@
       <c r="N5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="5" t="n">
         <v>45488.5183796296</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:15">
-      <c r="A6" s="1">
-        <v>2.26461841724141e+19</v>
+    <row r="6" customFormat="false" ht="13.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>2.26461841724141E+019</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -2506,22 +1658,22 @@
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="1" t="n">
         <v>14.22</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="1" t="n">
         <v>7.11</v>
       </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="G6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -2530,13 +1682,13 @@
       <c r="N6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="5" t="n">
         <v>45488.633287037</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>2.26471497732688e+19</v>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2.26471497732688E+019</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
@@ -2547,22 +1699,22 @@
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="n">
         <v>720</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="n">
         <v>99.17</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -2571,13 +1723,13 @@
       <c r="N7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="5" t="n">
         <v>45491.2978356481</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:17">
-      <c r="A8" s="1">
-        <v>2.26488742035339e+19</v>
+    <row r="8" customFormat="false" ht="13.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>2.26488742035339E+019</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -2588,22 +1740,22 @@
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="1" t="n">
         <v>7200</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="1" t="n">
         <v>7.29</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="n">
         <v>987.65</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -2612,16 +1764,16 @@
       <c r="N8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="5" t="n">
         <v>45496.0563541667</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="1" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>2.26489247851185e+19</v>
+    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2.26489247851185E+019</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
@@ -2632,22 +1784,22 @@
       <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1" t="n">
         <v>13.63</v>
       </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="H9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -2656,13 +1808,13 @@
       <c r="N9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="5" t="n">
         <v>45496.1959375</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>2.26489260215509e+19</v>
+    <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>2.26489260215509E+019</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
@@ -2673,22 +1825,22 @@
       <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="1" t="n">
         <v>13.63</v>
       </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -2697,13 +1849,13 @@
       <c r="N10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="5" t="n">
         <v>45496.1993518519</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>2.26489264541666e+19</v>
+    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>2.26489264541666E+019</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -2714,22 +1866,22 @@
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="1" t="n">
         <v>13.63</v>
       </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -2738,13 +1890,13 @@
       <c r="N11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="5" t="n">
         <v>45496.2005439815</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>2.26489352555075e+19</v>
+    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>2.26489352555075E+019</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -2755,22 +1907,22 @@
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="1">
-        <v>100</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1" t="n">
         <v>7.25</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="1" t="n">
         <v>13.79</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="H12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -2779,13 +1931,13 @@
       <c r="N12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="5" t="n">
         <v>45496.2248263889</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
-        <v>2.26489362182059e+19</v>
+    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>2.26489362182059E+019</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
@@ -2796,22 +1948,22 @@
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="1" t="n">
         <v>33.13</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="1" t="n">
         <v>7.25</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="1" t="n">
         <v>4.56</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="H13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -2820,13 +1972,13 @@
       <c r="N13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="5" t="n">
         <v>45496.2274884259</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
-        <v>2.26489957638063e+19</v>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>2.26489957638063E+019</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>22</v>
@@ -2837,22 +1989,22 @@
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="1" t="n">
         <v>27.54</v>
       </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="H14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -2861,13 +2013,13 @@
       <c r="N14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="5" t="n">
         <v>45496.3918055556</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:17">
-      <c r="A15" s="1">
-        <v>2.26490383095534e+19</v>
+    <row r="15" customFormat="false" ht="13.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>2.26490383095534E+019</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
@@ -2878,22 +2030,22 @@
       <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="1" t="n">
         <v>7.25</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="1" t="n">
         <v>689.65</v>
       </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
+      <c r="H15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -2902,16 +2054,16 @@
       <c r="N15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="5" t="n">
         <v>45496.5092013889</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="1" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1">
-        <v>2.26490628750488e+19</v>
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>2.26490628750488E+019</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
@@ -2922,22 +2074,22 @@
       <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="1" t="n">
         <v>41.32</v>
       </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
+      <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -2946,13 +2098,13 @@
       <c r="N16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="5" t="n">
         <v>45496.5769907407</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1">
-        <v>2.26492218087772e+19</v>
+    <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>2.26492218087772E+019</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
@@ -2963,22 +2115,22 @@
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="1" t="n">
         <v>13.63</v>
       </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="H17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
@@ -2987,13 +2139,13 @@
       <c r="N17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="5" t="n">
         <v>45497.0155671296</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1">
-        <v>2.26492221617103e+19</v>
+    <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>2.26492221617103E+019</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>22</v>
@@ -3004,22 +2156,22 @@
       <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="1" t="n">
         <v>13.63</v>
       </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="H18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -3028,13 +2180,13 @@
       <c r="N18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="5" t="n">
         <v>45497.0165393519</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1">
-        <v>2.26492224012847e+19</v>
+    <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>2.26492224012847E+019</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>22</v>
@@ -3045,22 +2197,22 @@
       <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="1" t="n">
         <v>13.63</v>
       </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
+      <c r="H19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
@@ -3069,13 +2221,13 @@
       <c r="N19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="5" t="n">
         <v>45497.0171990741</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:17">
-      <c r="A20" s="1">
-        <v>2.26492229270302e+19</v>
+    <row r="20" customFormat="false" ht="13.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>2.26492229270302E+019</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
@@ -3086,22 +2238,22 @@
       <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="1" t="n">
         <v>413.22</v>
       </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
+      <c r="H20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
@@ -3110,16 +2262,16 @@
       <c r="N20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="5" t="n">
         <v>45497.0186574074</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1">
-        <v>2.26492570373715e+19</v>
+    <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>2.26492570373715E+019</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
@@ -3130,22 +2282,22 @@
       <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="1" t="n">
         <v>7.25</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="1" t="n">
         <v>13.65</v>
       </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
+      <c r="H21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
@@ -3154,13 +2306,13 @@
       <c r="N21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="5" t="n">
         <v>45497.1127777778</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1">
-        <v>2.26492919251334e+19</v>
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>2.26492919251334E+019</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
@@ -3171,22 +2323,22 @@
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="1" t="n">
         <v>27.54</v>
       </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
+      <c r="H22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
@@ -3195,13 +2347,13 @@
       <c r="N22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="5" t="n">
         <v>45497.2090509259</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1">
-        <v>2.26492930573904e+19</v>
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>2.26492930573904E+019</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
@@ -3212,22 +2364,22 @@
       <c r="D23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="1" t="n">
         <v>27.54</v>
       </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
+      <c r="H23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -3236,13 +2388,13 @@
       <c r="N23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="5" t="n">
         <v>45497.2121759259</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:17">
-      <c r="A24" s="1">
-        <v>2.26493161527767e+19</v>
+    <row r="24" customFormat="false" ht="17.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>2.26493161527767E+019</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
@@ -3253,22 +2405,22 @@
       <c r="D24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="1" t="n">
         <v>27.54</v>
       </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
+      <c r="H24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
@@ -3277,16 +2429,16 @@
       <c r="N24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="5" t="n">
         <v>45497.2759027778</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="1">
-        <v>2.26493408156092e+19</v>
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>2.26493408156092E+019</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
@@ -3297,22 +2449,22 @@
       <c r="D25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="1" t="n">
         <v>41.32</v>
       </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
+      <c r="H25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M25" s="1" t="s">
@@ -3321,13 +2473,13 @@
       <c r="N25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="5" t="n">
         <v>45497.3439583333</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="1">
-        <v>2.26493531366563e+19</v>
+    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>2.26493531366563E+019</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>22</v>
@@ -3338,22 +2490,22 @@
       <c r="D26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="1" t="n">
         <v>12.39</v>
       </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
+      <c r="H26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -3362,13 +2514,13 @@
       <c r="N26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="5" t="n">
         <v>45497.377962963</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:17">
-      <c r="A27" s="1">
-        <v>2.26493556078438e+19</v>
+    <row r="27" customFormat="false" ht="13.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>2.26493556078438E+019</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>22</v>
@@ -3379,22 +2531,22 @@
       <c r="D27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="1">
-        <v>100</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="E27" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F27" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="1" t="n">
         <v>13.77</v>
       </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
+      <c r="H27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M27" s="1" t="s">
@@ -3403,16 +2555,16 @@
       <c r="N27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="5" t="n">
         <v>45497.3847800926</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="1" t="n">
         <v>1800</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1">
-        <v>2.26493962354185e+19</v>
+    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>2.26493962354185E+019</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>22</v>
@@ -3423,22 +2575,22 @@
       <c r="D28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="1">
-        <v>100</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="E28" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F28" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="1" t="n">
         <v>13.77</v>
       </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1">
+      <c r="H28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
@@ -3447,13 +2599,13 @@
       <c r="N28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="5" t="n">
         <v>45497.4968865741</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:17">
-      <c r="A29" s="1">
-        <v>2.26493981011837e+19</v>
+    <row r="29" customFormat="false" ht="13.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>2.26493981011837E+019</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>22</v>
@@ -3464,22 +2616,22 @@
       <c r="D29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="1" t="n">
         <v>8000</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="1" t="n">
         <v>1101.92</v>
       </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
+      <c r="H29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M29" s="1" t="s">
@@ -3488,16 +2640,16 @@
       <c r="N29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="5" t="n">
         <v>45497.502037037</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="1" t="n">
         <v>3000</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="1">
-        <v>2.264959421403e+19</v>
+    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>2.264959421403E+019</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>22</v>
@@ -3508,22 +2660,22 @@
       <c r="D30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="1" t="n">
         <v>7.28</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="1" t="n">
         <v>137.36</v>
       </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
+      <c r="H30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M30" s="1" t="s">
@@ -3532,13 +2684,13 @@
       <c r="N30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="5" t="n">
         <v>45498.0432060185</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="1">
-        <v>2.26495957578282e+19</v>
+    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>2.26495957578282E+019</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>22</v>
@@ -3549,22 +2701,22 @@
       <c r="D31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="1" t="n">
         <v>3615.39</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="1" t="n">
         <v>7.28</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="1" t="n">
         <v>496.61</v>
       </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-      <c r="L31" s="1">
+      <c r="H31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M31" s="1" t="s">
@@ -3573,13 +2725,13 @@
       <c r="N31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="5" t="n">
         <v>45498.0474652778</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="1">
-        <v>2.26496639519491e+19</v>
+    <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>2.26496639519491E+019</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>22</v>
@@ -3590,22 +2742,22 @@
       <c r="D32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="1" t="n">
         <v>7.29</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="1" t="n">
         <v>137.17</v>
       </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1">
+      <c r="H32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M32" s="1" t="s">
@@ -3614,13 +2766,13 @@
       <c r="N32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="5" t="n">
         <v>45498.2356481481</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1">
-        <v>2.26496644878763e+19</v>
+    <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>2.26496644878763E+019</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>22</v>
@@ -3631,22 +2783,22 @@
       <c r="D33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="1" t="n">
         <v>7.29</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="1" t="n">
         <v>246.91</v>
       </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
+      <c r="H33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M33" s="1" t="s">
@@ -3655,13 +2807,13 @@
       <c r="N33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="5" t="n">
         <v>45498.2371296296</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="1">
-        <v>2.26496922238053e+19</v>
+    <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>2.26496922238053E+019</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>22</v>
@@ -3672,22 +2824,22 @@
       <c r="D34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="1" t="n">
         <v>7.28</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="1" t="n">
         <v>164.83</v>
       </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
+      <c r="H34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="1" t="s">
@@ -3696,13 +2848,13 @@
       <c r="N34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="5" t="n">
         <v>45498.3136689815</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="1">
-        <v>2.26499840208225e+19</v>
+    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>2.26499840208225E+019</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>22</v>
@@ -3713,22 +2865,22 @@
       <c r="D35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="1" t="n">
         <v>7.27</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="1" t="n">
         <v>412.65</v>
       </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-      <c r="L35" s="1">
+      <c r="H35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M35" s="1" t="s">
@@ -3737,13 +2889,13 @@
       <c r="N35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="5" t="n">
         <v>45499.1188657407</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:17">
-      <c r="A36" s="1">
-        <v>2.26505126337098e+19</v>
+    <row r="36" customFormat="false" ht="13.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>2.26505126337098E+019</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>22</v>
@@ -3754,22 +2906,22 @@
       <c r="D36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="1" t="n">
         <v>4000</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="1" t="n">
         <v>7.28</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="1" t="n">
         <v>549.45</v>
       </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="1">
+      <c r="H36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M36" s="1" t="s">
@@ -3778,16 +2930,16 @@
       <c r="N36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36" s="5" t="n">
         <v>45500.5775694444</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q36" s="1" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:17">
-      <c r="A37" s="1">
-        <v>2.26505146993534e+19</v>
+    <row r="37" customFormat="false" ht="13.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>2.26505146993534E+019</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>22</v>
@@ -3798,22 +2950,22 @@
       <c r="D37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="1" t="n">
         <v>7.29</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="1" t="n">
         <v>411.52</v>
       </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0</v>
-      </c>
-      <c r="L37" s="1">
+      <c r="H37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -3822,16 +2974,16 @@
       <c r="N37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="5" t="n">
         <v>45500.5832638889</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="1">
-        <v>2.26507094185224e+19</v>
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>2.26507094185224E+019</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>22</v>
@@ -3842,22 +2994,22 @@
       <c r="D38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="1" t="n">
         <v>7.3</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="1" t="n">
         <v>273.97</v>
       </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
+      <c r="H38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M38" s="1" t="s">
@@ -3866,13 +3018,13 @@
       <c r="N38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="5" t="n">
         <v>45501.1205902778</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:17">
-      <c r="A39" s="1">
-        <v>2.26510409305626e+19</v>
+    <row r="39" customFormat="false" ht="13.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>2.26510409305626E+019</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>22</v>
@@ -3883,22 +3035,22 @@
       <c r="D39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="1" t="n">
         <v>7.28</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="1" t="n">
         <v>274.72</v>
       </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
+      <c r="H39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M39" s="1" t="s">
@@ -3907,16 +3059,16 @@
       <c r="N39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="5" t="n">
         <v>45502.0353819444</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q39" s="1" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="1">
-        <v>2.26510686145479e+19</v>
+    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>2.26510686145479E+019</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>22</v>
@@ -3927,22 +3079,22 @@
       <c r="D40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="1" t="n">
         <v>7.29</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="1" t="n">
         <v>274.34</v>
       </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1">
+      <c r="H40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M40" s="1" t="s">
@@ -3951,13 +3103,13 @@
       <c r="N40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="5" t="n">
         <v>45502.1117824074</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="1">
-        <v>2.26511704641749e+19</v>
+    <row r="41" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>2.26511704641749E+019</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>22</v>
@@ -3968,22 +3120,22 @@
       <c r="D41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="1" t="n">
         <v>7.28</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="1" t="n">
         <v>274.72</v>
       </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
+      <c r="H41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M41" s="1" t="s">
@@ -3992,13 +3144,13 @@
       <c r="N41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="5" t="n">
         <v>45502.3928356481</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="1">
-        <v>2.2651779452296e+19</v>
+    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>2.2651779452296E+019</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>22</v>
@@ -4009,22 +3161,22 @@
       <c r="D42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="1">
-        <v>100</v>
-      </c>
-      <c r="F42" s="1">
+      <c r="E42" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F42" s="1" t="n">
         <v>7.28</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="1" t="n">
         <v>13.73</v>
       </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1">
+      <c r="H42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M42" s="1" t="s">
@@ -4033,13 +3185,13 @@
       <c r="N42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="5" t="n">
         <v>45504.0733217593</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:15">
-      <c r="A43" s="1">
-        <v>2.26517803163915e+19</v>
+    <row r="43" customFormat="false" ht="13.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>2.26517803163915E+019</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>22</v>
@@ -4050,22 +3202,22 @@
       <c r="D43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="1">
-        <v>100</v>
-      </c>
-      <c r="F43" s="1">
+      <c r="E43" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F43" s="1" t="n">
         <v>7.28</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="1" t="n">
         <v>13.73</v>
       </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1">
+      <c r="H43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -4074,13 +3226,13 @@
       <c r="N43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43" s="5" t="n">
         <v>45504.0757060185</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="1">
-        <v>2.26517809025698e+19</v>
+    <row r="44" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>2.26517809025698E+019</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>22</v>
@@ -4091,22 +3243,22 @@
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="1" t="n">
         <v>7.29</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="1" t="n">
         <v>68.58</v>
       </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
+      <c r="H44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M44" s="1" t="s">
@@ -4115,13 +3267,13 @@
       <c r="N44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O44" s="5" t="n">
         <v>45504.0773148148</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="1">
-        <v>2.26518426895708e+19</v>
+    <row r="45" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>2.26518426895708E+019</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>22</v>
@@ -4132,22 +3284,22 @@
       <c r="D45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="1" t="n">
         <v>27.54</v>
       </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1">
+      <c r="H45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M45" s="1" t="s">
@@ -4156,13 +3308,13 @@
       <c r="N45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O45" s="5" t="n">
         <v>45504.2478240741</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="1">
-        <v>2.26518433346472e+19</v>
+    <row r="46" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>2.26518433346472E+019</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>22</v>
@@ -4173,22 +3325,22 @@
       <c r="D46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="1" t="n">
         <v>7.29</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="1" t="n">
         <v>68.58</v>
       </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0</v>
-      </c>
-      <c r="L46" s="1">
+      <c r="H46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M46" s="1" t="s">
@@ -4197,13 +3349,13 @@
       <c r="N46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46" s="5" t="n">
         <v>45504.2495949074</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="1">
-        <v>2.26522217164686e+19</v>
+    <row r="47" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>2.26522217164686E+019</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>22</v>
@@ -4214,22 +3366,22 @@
       <c r="D47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="1" t="n">
         <v>7.25</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="1" t="n">
         <v>27.58</v>
       </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
+      <c r="H47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M47" s="1" t="s">
@@ -4238,13 +3390,13 @@
       <c r="N47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O47" s="5" t="n">
         <v>45505.2937384259</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="1">
-        <v>2.26525810520272e+19</v>
+    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>2.26525810520272E+019</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>22</v>
@@ -4255,22 +3407,22 @@
       <c r="D48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="1">
-        <v>100</v>
-      </c>
-      <c r="F48" s="1">
+      <c r="E48" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F48" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="1" t="n">
         <v>13.77</v>
       </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
+      <c r="H48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M48" s="1" t="s">
@@ -4279,13 +3431,13 @@
       <c r="N48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O48" s="2">
+      <c r="O48" s="5" t="n">
         <v>45506.2853125</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="1">
-        <v>2.26544133401604e+19</v>
+    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>2.26544133401604E+019</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>22</v>
@@ -4296,22 +3448,22 @@
       <c r="D49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="1" t="n">
         <v>7.28</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="1" t="n">
         <v>68.68</v>
       </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1">
-        <v>0</v>
-      </c>
-      <c r="L49" s="1">
+      <c r="H49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M49" s="1" t="s">
@@ -4320,13 +3472,13 @@
       <c r="N49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49" s="5" t="n">
         <v>45511.3414583333</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="1">
-        <v>2.26558202789191e+19</v>
+    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>2.26558202789191E+019</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>22</v>
@@ -4337,22 +3489,22 @@
       <c r="D50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="1" t="n">
         <v>7.24</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="1" t="n">
         <v>414.36</v>
       </c>
-      <c r="H50" s="1">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1">
-        <v>0</v>
-      </c>
-      <c r="L50" s="1">
+      <c r="H50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M50" s="1" t="s">
@@ -4361,13 +3513,13 @@
       <c r="N50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O50" s="5" t="n">
         <v>45515.2238773148</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="1">
-        <v>2.26568200888441e+19</v>
+    <row r="51" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>2.26568200888441E+019</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>22</v>
@@ -4378,22 +3530,22 @@
       <c r="D51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="1" t="n">
         <v>7.23</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="1" t="n">
         <v>414.93</v>
       </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1">
+      <c r="H51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M51" s="1" t="s">
@@ -4402,240 +3554,247 @@
       <c r="N51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51" s="5" t="n">
         <v>45517.9828240741</v>
       </c>
     </row>
-    <row r="53" spans="5:5">
-      <c r="E53" s="1">
+    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="5:5">
-      <c r="E54" s="1">
+    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="5:5">
-      <c r="E55" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="5:5">
-      <c r="E56" s="1">
+    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="1" t="n">
         <v>720</v>
       </c>
     </row>
-    <row r="57" spans="5:5">
-      <c r="E57" s="1">
+    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="1" t="n">
         <v>720</v>
       </c>
     </row>
-    <row r="58" spans="5:5">
-      <c r="E58" s="1">
+    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="1" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="5:5">
-      <c r="E59" s="1">
+    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E59" s="1" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="5:5">
-      <c r="E60" s="1">
+    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="1" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="5:5">
-      <c r="E61" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="5:5">
-      <c r="E62" s="1">
+    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E61" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="1" t="n">
         <v>33.13</v>
       </c>
     </row>
-    <row r="63" spans="5:5">
-      <c r="E63" s="1">
+    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="5:5">
-      <c r="E64" s="1">
+    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="5:5">
-      <c r="E65" s="1">
+    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="1" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="5:5">
-      <c r="E66" s="1">
+    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="1" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="5:5">
-      <c r="E67" s="1">
+    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="1" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="5:5">
-      <c r="E68" s="1">
+    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="1" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="5:5">
-      <c r="E69" s="1">
+    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="5:5">
-      <c r="E70" s="1">
+    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="5:5">
-      <c r="E71" s="1">
+    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E71" s="1" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="5:5">
-      <c r="E72" s="1">
+    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E72" s="1" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="5:5">
-      <c r="E73" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="5:5">
-      <c r="E74" s="1">
+    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E73" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E74" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="75" spans="5:5">
-      <c r="E75" s="1">
+    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" s="1" t="n">
         <v>3615.39</v>
       </c>
     </row>
-    <row r="76" spans="5:5">
-      <c r="E76" s="1">
+    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="77" spans="5:5">
-      <c r="E77" s="1">
+    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E77" s="1" t="n">
         <v>1800</v>
       </c>
     </row>
-    <row r="78" spans="5:5">
-      <c r="E78" s="1">
+    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="1" t="n">
         <v>1200</v>
       </c>
     </row>
-    <row r="79" spans="5:5">
-      <c r="E79" s="1">
+    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="1" t="n">
         <v>3000</v>
       </c>
     </row>
-    <row r="80" spans="5:5">
-      <c r="E80" s="1">
+    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="1" t="n">
         <v>2000</v>
       </c>
     </row>
-    <row r="81" spans="5:5">
-      <c r="E81" s="1">
+    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="1" t="n">
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="5:5">
-      <c r="E82" s="1">
+    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="1" t="n">
         <v>2000</v>
       </c>
     </row>
-    <row r="83" spans="5:5">
-      <c r="E83" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="5:5">
-      <c r="E84" s="1">
+    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E83" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="1" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="85" spans="5:5">
-      <c r="E85" s="1">
+    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="5:5">
-      <c r="E86" s="1">
+    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="1" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="87" spans="5:5">
-      <c r="E87" s="1">
+    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="5:5">
-      <c r="E88" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="5:5">
-      <c r="E89" s="1">
+    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="1" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="5:5">
-      <c r="E90" s="1">
+    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" s="1" t="n">
         <v>3000</v>
       </c>
     </row>
-    <row r="91" spans="5:5">
-      <c r="E91" s="1">
+    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="1" t="n">
         <v>3000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:O51" etc:filterBottomFollowUsedRange="0">
+  <autoFilter ref="A1:O51">
     <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="equal" val="Buy"/>
-      </customFilters>
+      <filters>
+        <filter val="Buy"/>
+      </filters>
     </filterColumn>
     <filterColumn colId="13">
-      <customFilters>
-        <customFilter operator="equal" val="Completed"/>
-      </customFilters>
+      <filters>
+        <filter val="Completed"/>
+      </filters>
     </filterColumn>
-    <extLst/>
   </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4682,9 +3841,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
-        <v>2.26457903553286e+19</v>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2.26457903553286E+019</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
@@ -4695,22 +3854,22 @@
       <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="1" t="n">
         <v>7.32</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="1" t="n">
         <v>27.32</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -4719,13 +3878,13 @@
       <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="5" t="n">
         <v>45487.5465625</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>2.2645813507186e+19</v>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2.2645813507186E+019</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -4736,22 +3895,22 @@
       <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="1" t="n">
         <v>7.32</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="1" t="n">
         <v>27.32</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -4760,13 +3919,13 @@
       <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="5" t="n">
         <v>45487.6104513889</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>2.26458160596665e+19</v>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2.26458160596665E+019</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
@@ -4777,22 +3936,22 @@
       <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1">
-        <v>100</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <v>7.48</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="n">
         <v>13.36898395</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="H4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -4801,13 +3960,13 @@
       <c r="N4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="5" t="n">
         <v>45487.6174884259</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>2.26461425293624e+19</v>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2.26461425293624E+019</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
@@ -4818,22 +3977,22 @@
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="n">
         <v>720</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1" t="n">
         <v>7.29</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="n">
         <v>98.76</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -4842,13 +4001,13 @@
       <c r="N5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="5" t="n">
         <v>45488.5183796296</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>2.26461841724141e+19</v>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>2.26461841724141E+019</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -4859,22 +4018,22 @@
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="1" t="n">
         <v>14.22</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="1" t="n">
         <v>7.11</v>
       </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="G6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -4883,13 +4042,13 @@
       <c r="N6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="5" t="n">
         <v>45488.633287037</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>2.26471497732688e+19</v>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2.26471497732688E+019</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
@@ -4900,22 +4059,22 @@
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="n">
         <v>720</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="n">
         <v>99.17</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -4924,13 +4083,13 @@
       <c r="N7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="5" t="n">
         <v>45491.2978356481</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>2.26489247851185e+19</v>
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>2.26489247851185E+019</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -4941,22 +4100,22 @@
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="n">
         <v>13.63</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -4965,13 +4124,13 @@
       <c r="N8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="5" t="n">
         <v>45496.1959375</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>2.26489260215509e+19</v>
+    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2.26489260215509E+019</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
@@ -4982,22 +4141,22 @@
       <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1" t="n">
         <v>13.63</v>
       </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="H9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -5006,13 +4165,13 @@
       <c r="N9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="5" t="n">
         <v>45496.1993518519</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>2.26489264541666e+19</v>
+    <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>2.26489264541666E+019</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
@@ -5023,22 +4182,22 @@
       <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="1" t="n">
         <v>13.63</v>
       </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -5047,13 +4206,13 @@
       <c r="N10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="5" t="n">
         <v>45496.2005439815</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>2.26489352555075e+19</v>
+    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>2.26489352555075E+019</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -5064,22 +4223,22 @@
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="1">
-        <v>100</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1" t="n">
         <v>7.25</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="1" t="n">
         <v>13.79</v>
       </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -5088,13 +4247,13 @@
       <c r="N11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="5" t="n">
         <v>45496.2248263889</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>2.26489362182059e+19</v>
+    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>2.26489362182059E+019</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -5105,22 +4264,22 @@
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="1" t="n">
         <v>33.13</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="1" t="n">
         <v>7.25</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="1" t="n">
         <v>4.56</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="H12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -5129,13 +4288,13 @@
       <c r="N12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="5" t="n">
         <v>45496.2274884259</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
-        <v>2.26489957638063e+19</v>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>2.26489957638063E+019</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
@@ -5146,22 +4305,22 @@
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="1" t="n">
         <v>27.54</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="H13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -5170,13 +4329,13 @@
       <c r="N13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="5" t="n">
         <v>45496.3918055556</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
-        <v>2.26490628750488e+19</v>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>2.26490628750488E+019</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>22</v>
@@ -5187,22 +4346,22 @@
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="1" t="n">
         <v>41.32</v>
       </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="H14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -5211,13 +4370,13 @@
       <c r="N14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="5" t="n">
         <v>45496.5769907407</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1">
-        <v>2.26492218087772e+19</v>
+    <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>2.26492218087772E+019</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
@@ -5228,22 +4387,22 @@
       <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="1" t="n">
         <v>13.63</v>
       </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
+      <c r="H15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -5252,13 +4411,13 @@
       <c r="N15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="5" t="n">
         <v>45497.0155671296</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1">
-        <v>2.26492221617103e+19</v>
+    <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>2.26492221617103E+019</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
@@ -5269,22 +4428,22 @@
       <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="1" t="n">
         <v>13.63</v>
       </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
+      <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -5293,13 +4452,13 @@
       <c r="N16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="5" t="n">
         <v>45497.0165393519</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1">
-        <v>2.26492224012847e+19</v>
+    <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>2.26492224012847E+019</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
@@ -5310,22 +4469,22 @@
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="1" t="n">
         <v>13.63</v>
       </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="H17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
@@ -5334,13 +4493,13 @@
       <c r="N17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="5" t="n">
         <v>45497.0171990741</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1">
-        <v>2.26492570373715e+19</v>
+    <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>2.26492570373715E+019</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>22</v>
@@ -5351,22 +4510,22 @@
       <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="1" t="n">
         <v>7.25</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="1" t="n">
         <v>13.65</v>
       </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="H18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -5375,13 +4534,13 @@
       <c r="N18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="5" t="n">
         <v>45497.1127777778</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1">
-        <v>2.26492919251334e+19</v>
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>2.26492919251334E+019</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>22</v>
@@ -5392,22 +4551,22 @@
       <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="1" t="n">
         <v>27.54</v>
       </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
+      <c r="H19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
@@ -5416,13 +4575,13 @@
       <c r="N19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="5" t="n">
         <v>45497.2090509259</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1">
-        <v>2.26492930573904e+19</v>
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>2.26492930573904E+019</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
@@ -5433,22 +4592,22 @@
       <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="1" t="n">
         <v>27.54</v>
       </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
+      <c r="H20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
@@ -5457,13 +4616,13 @@
       <c r="N20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="5" t="n">
         <v>45497.2121759259</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1">
-        <v>2.26493408156092e+19</v>
+    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>2.26493408156092E+019</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
@@ -5474,22 +4633,22 @@
       <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="1" t="n">
         <v>41.32</v>
       </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
+      <c r="H21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
@@ -5498,13 +4657,13 @@
       <c r="N21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="5" t="n">
         <v>45497.3439583333</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1">
-        <v>2.26493531366563e+19</v>
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>2.26493531366563E+019</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
@@ -5515,22 +4674,22 @@
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="1" t="n">
         <v>12.39</v>
       </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
+      <c r="H22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
@@ -5539,13 +4698,13 @@
       <c r="N22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="5" t="n">
         <v>45497.377962963</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1">
-        <v>2.26493962354185e+19</v>
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>2.26493962354185E+019</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
@@ -5556,22 +4715,22 @@
       <c r="D23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="1">
-        <v>100</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="E23" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F23" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="1" t="n">
         <v>13.77</v>
       </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
+      <c r="H23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -5580,13 +4739,13 @@
       <c r="N23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="5" t="n">
         <v>45497.4968865741</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="1">
-        <v>2.264959421403e+19</v>
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>2.264959421403E+019</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
@@ -5597,22 +4756,22 @@
       <c r="D24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="1" t="n">
         <v>7.28</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="1" t="n">
         <v>137.36</v>
       </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
+      <c r="H24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
@@ -5621,13 +4780,13 @@
       <c r="N24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="5" t="n">
         <v>45498.0432060185</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="1">
-        <v>2.26495957578282e+19</v>
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>2.26495957578282E+019</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
@@ -5638,22 +4797,22 @@
       <c r="D25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="1" t="n">
         <v>3615.39</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="1" t="n">
         <v>7.28</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="1" t="n">
         <v>496.61</v>
       </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
+      <c r="H25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M25" s="1" t="s">
@@ -5662,13 +4821,13 @@
       <c r="N25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="5" t="n">
         <v>45498.0474652778</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="1">
-        <v>2.26496639519491e+19</v>
+    <row r="26" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>2.26496639519491E+019</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>22</v>
@@ -5679,22 +4838,22 @@
       <c r="D26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="1" t="n">
         <v>7.29</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="1" t="n">
         <v>137.17</v>
       </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
+      <c r="H26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -5703,13 +4862,13 @@
       <c r="N26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="5" t="n">
         <v>45498.2356481481</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1">
-        <v>2.26496644878763e+19</v>
+    <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>2.26496644878763E+019</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>22</v>
@@ -5720,22 +4879,22 @@
       <c r="D27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="1" t="n">
         <v>7.29</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="1" t="n">
         <v>246.91</v>
       </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
+      <c r="H27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M27" s="1" t="s">
@@ -5744,13 +4903,13 @@
       <c r="N27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="5" t="n">
         <v>45498.2371296296</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1">
-        <v>2.26496922238053e+19</v>
+    <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>2.26496922238053E+019</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>22</v>
@@ -5761,22 +4920,22 @@
       <c r="D28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="1" t="n">
         <v>7.28</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="1" t="n">
         <v>164.83</v>
       </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1">
+      <c r="H28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
@@ -5785,13 +4944,13 @@
       <c r="N28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="5" t="n">
         <v>45498.3136689815</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="1">
-        <v>2.26499840208225e+19</v>
+    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>2.26499840208225E+019</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>22</v>
@@ -5802,22 +4961,22 @@
       <c r="D29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="1" t="n">
         <v>7.27</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="1" t="n">
         <v>412.65</v>
       </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
+      <c r="H29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M29" s="1" t="s">
@@ -5826,13 +4985,13 @@
       <c r="N29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="5" t="n">
         <v>45499.1188657407</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="1">
-        <v>2.26507094185224e+19</v>
+    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>2.26507094185224E+019</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>22</v>
@@ -5843,22 +5002,22 @@
       <c r="D30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="1" t="n">
         <v>7.3</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="1" t="n">
         <v>273.97</v>
       </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
+      <c r="H30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M30" s="1" t="s">
@@ -5867,13 +5026,13 @@
       <c r="N30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="5" t="n">
         <v>45501.1205902778</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="1">
-        <v>2.26510686145479e+19</v>
+    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>2.26510686145479E+019</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>22</v>
@@ -5884,22 +5043,22 @@
       <c r="D31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="1" t="n">
         <v>7.29</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="1" t="n">
         <v>274.34</v>
       </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-      <c r="L31" s="1">
+      <c r="H31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M31" s="1" t="s">
@@ -5908,13 +5067,13 @@
       <c r="N31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="5" t="n">
         <v>45502.1117824074</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="1">
-        <v>2.26511704641749e+19</v>
+    <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>2.26511704641749E+019</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>22</v>
@@ -5925,22 +5084,22 @@
       <c r="D32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="1" t="n">
         <v>7.28</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="1" t="n">
         <v>274.72</v>
       </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1">
+      <c r="H32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M32" s="1" t="s">
@@ -5949,13 +5108,13 @@
       <c r="N32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="5" t="n">
         <v>45502.3928356481</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1">
-        <v>2.2651779452296e+19</v>
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>2.2651779452296E+019</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>22</v>
@@ -5966,22 +5125,22 @@
       <c r="D33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="1">
-        <v>100</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="E33" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F33" s="1" t="n">
         <v>7.28</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="1" t="n">
         <v>13.73</v>
       </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
+      <c r="H33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M33" s="1" t="s">
@@ -5990,13 +5149,13 @@
       <c r="N33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="5" t="n">
         <v>45504.0733217593</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="1">
-        <v>2.26517809025698e+19</v>
+    <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>2.26517809025698E+019</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>22</v>
@@ -6007,22 +5166,22 @@
       <c r="D34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="1" t="n">
         <v>7.29</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="1" t="n">
         <v>68.58</v>
       </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
+      <c r="H34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="1" t="s">
@@ -6031,13 +5190,13 @@
       <c r="N34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="5" t="n">
         <v>45504.0773148148</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="1">
-        <v>2.26518426895708e+19</v>
+    <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>2.26518426895708E+019</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>22</v>
@@ -6048,22 +5207,22 @@
       <c r="D35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="1" t="n">
         <v>27.54</v>
       </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-      <c r="L35" s="1">
+      <c r="H35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M35" s="1" t="s">
@@ -6072,13 +5231,13 @@
       <c r="N35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="5" t="n">
         <v>45504.2478240741</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="1">
-        <v>2.26518433346472e+19</v>
+    <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>2.26518433346472E+019</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>22</v>
@@ -6089,22 +5248,22 @@
       <c r="D36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="1" t="n">
         <v>7.29</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="1" t="n">
         <v>68.58</v>
       </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="1">
+      <c r="H36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M36" s="1" t="s">
@@ -6113,13 +5272,13 @@
       <c r="N36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36" s="5" t="n">
         <v>45504.2495949074</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="1">
-        <v>2.26522217164686e+19</v>
+    <row r="37" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>2.26522217164686E+019</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>22</v>
@@ -6130,22 +5289,22 @@
       <c r="D37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="1" t="n">
         <v>7.25</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="1" t="n">
         <v>27.58</v>
       </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0</v>
-      </c>
-      <c r="L37" s="1">
+      <c r="H37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -6154,13 +5313,13 @@
       <c r="N37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="5" t="n">
         <v>45505.2937384259</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="1">
-        <v>2.26525810520272e+19</v>
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>2.26525810520272E+019</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>22</v>
@@ -6171,22 +5330,22 @@
       <c r="D38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="1">
-        <v>100</v>
-      </c>
-      <c r="F38" s="1">
+      <c r="E38" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F38" s="1" t="n">
         <v>7.26</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="1" t="n">
         <v>13.77</v>
       </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
+      <c r="H38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M38" s="1" t="s">
@@ -6195,13 +5354,13 @@
       <c r="N38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="5" t="n">
         <v>45506.2853125</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="1">
-        <v>2.26544133401604e+19</v>
+    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>2.26544133401604E+019</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>22</v>
@@ -6212,22 +5371,22 @@
       <c r="D39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="1" t="n">
         <v>7.28</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="1" t="n">
         <v>68.68</v>
       </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
+      <c r="H39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M39" s="1" t="s">
@@ -6236,13 +5395,13 @@
       <c r="N39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="5" t="n">
         <v>45511.3414583333</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="1">
-        <v>2.26558202789191e+19</v>
+    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>2.26558202789191E+019</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>22</v>
@@ -6253,22 +5412,22 @@
       <c r="D40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="1" t="n">
         <v>7.24</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="1" t="n">
         <v>414.36</v>
       </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1">
+      <c r="H40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M40" s="1" t="s">
@@ -6277,13 +5436,13 @@
       <c r="N40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="5" t="n">
         <v>45515.2238773148</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="1">
-        <v>2.26568200888441e+19</v>
+    <row r="41" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>2.26568200888441E+019</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>22</v>
@@ -6294,22 +5453,22 @@
       <c r="D41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="1" t="n">
         <v>7.23</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="1" t="n">
         <v>414.93</v>
       </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
+      <c r="H41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M41" s="1" t="s">
@@ -6318,13 +5477,13 @@
       <c r="N41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="5" t="n">
         <v>45517.9828240741</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="1">
-        <v>2.26583174158601e+19</v>
+    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>2.26583174158601E+019</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>22</v>
@@ -6335,22 +5494,22 @@
       <c r="D42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="1">
-        <v>100</v>
-      </c>
-      <c r="F42" s="1">
+      <c r="E42" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F42" s="1" t="n">
         <v>7.19</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="1" t="n">
         <v>13.9</v>
       </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1">
+      <c r="H42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M42" s="1" t="s">
@@ -6359,13 +5518,13 @@
       <c r="N42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="5" t="n">
         <v>45522.1146643519</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="1">
-        <v>2.26590343042923e+19</v>
+    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>2.26590343042923E+019</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>22</v>
@@ -6376,22 +5535,22 @@
       <c r="D43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1">
+      <c r="H43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -6400,13 +5559,13 @@
       <c r="N43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43" s="5" t="n">
         <v>45524.0928935185</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="1">
-        <v>2.26590348673141e+19</v>
+    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>2.26590348673141E+019</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>22</v>
@@ -6417,22 +5576,22 @@
       <c r="D44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="1">
-        <v>100</v>
-      </c>
-      <c r="F44" s="1">
+      <c r="E44" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F44" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="1" t="n">
         <v>13.88</v>
       </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
+      <c r="H44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M44" s="1" t="s">
@@ -6441,13 +5600,13 @@
       <c r="N44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O44" s="5" t="n">
         <v>45524.0944444444</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="1">
-        <v>2.26590355767863e+19</v>
+    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>2.26590355767863E+019</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>22</v>
@@ -6458,22 +5617,22 @@
       <c r="D45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="1" t="n">
         <v>7.2</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="1" t="n">
         <v>12.5</v>
       </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1">
+      <c r="H45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M45" s="1" t="s">
@@ -6482,13 +5641,13 @@
       <c r="N45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O45" s="5" t="n">
         <v>45524.096412037</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="1">
-        <v>2.26608153887382e+19</v>
+    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>2.26608153887382E+019</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>22</v>
@@ -6499,22 +5658,22 @@
       <c r="D46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="1" t="n">
         <v>7.14</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="1" t="n">
         <v>26.33</v>
       </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0</v>
-      </c>
-      <c r="L46" s="1">
+      <c r="H46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M46" s="1" t="s">
@@ -6523,13 +5682,13 @@
       <c r="N46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46" s="5" t="n">
         <v>45529.0077546296</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="1">
-        <v>2.26612430915019e+19</v>
+    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>2.26612430915019E+019</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>22</v>
@@ -6540,22 +5699,22 @@
       <c r="D47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="1" t="n">
         <v>7.13</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="1" t="n">
         <v>10.09</v>
       </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
+      <c r="H47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M47" s="1" t="s">
@@ -6564,13 +5723,13 @@
       <c r="N47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O47" s="5" t="n">
         <v>45530.1879861111</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="1">
-        <v>2.2661615116264e+19</v>
+    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>2.2661615116264E+019</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>22</v>
@@ -6581,22 +5740,22 @@
       <c r="D48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="1" t="n">
         <v>7.12</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="1" t="n">
         <v>10.11</v>
       </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
+      <c r="H48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M48" s="1" t="s">
@@ -6605,13 +5764,13 @@
       <c r="N48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O48" s="2">
+      <c r="O48" s="5" t="n">
         <v>45531.2145833333</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="1">
-        <v>2.2661998398442e+19</v>
+    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>2.2661998398442E+019</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>22</v>
@@ -6622,22 +5781,22 @@
       <c r="D49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="1">
-        <v>100</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="E49" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F49" s="1" t="n">
         <v>7.13</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="1" t="n">
         <v>14.02</v>
       </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1">
-        <v>0</v>
-      </c>
-      <c r="L49" s="1">
+      <c r="H49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M49" s="1" t="s">
@@ -6646,13 +5805,13 @@
       <c r="N49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49" s="5" t="n">
         <v>45532.2722337963</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="1">
-        <v>2.26623506820396e+19</v>
+    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>2.26623506820396E+019</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>22</v>
@@ -6663,22 +5822,22 @@
       <c r="D50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="1" t="n">
         <v>7.14</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="1" t="n">
         <v>10.08</v>
       </c>
-      <c r="H50" s="1">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1">
-        <v>0</v>
-      </c>
-      <c r="L50" s="1">
+      <c r="H50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M50" s="1" t="s">
@@ -6687,13 +5846,13 @@
       <c r="N50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O50" s="5" t="n">
         <v>45533.2443518518</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="1">
-        <v>2.26627105017994e+19</v>
+    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>2.26627105017994E+019</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>22</v>
@@ -6704,22 +5863,22 @@
       <c r="D51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="1" t="n">
         <v>7.13</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="1" t="n">
         <v>10.09</v>
       </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1">
+      <c r="H51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M51" s="1" t="s">
@@ -6728,13 +5887,13 @@
       <c r="N51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51" s="5" t="n">
         <v>45534.2372685185</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="1">
-        <v>2.26631480875883e+19</v>
+    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>2.26631480875883E+019</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>22</v>
@@ -6745,22 +5904,22 @@
       <c r="D52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="1" t="n">
         <v>7.11</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="1" t="n">
         <v>10.12</v>
       </c>
-      <c r="H52" s="1">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1">
-        <v>0</v>
-      </c>
-      <c r="L52" s="1">
+      <c r="H52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M52" s="1" t="s">
@@ -6769,13 +5928,13 @@
       <c r="N52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O52" s="2">
+      <c r="O52" s="5" t="n">
         <v>45535.4447800926</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="1">
-        <v>2.2663540974717e+19</v>
+    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>2.2663540974717E+019</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>22</v>
@@ -6786,22 +5945,22 @@
       <c r="D53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="1">
-        <v>100</v>
-      </c>
-      <c r="F53" s="1">
+      <c r="E53" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F53" s="1" t="n">
         <v>7.12</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="1" t="n">
         <v>14.04</v>
       </c>
-      <c r="H53" s="1">
-        <v>0</v>
-      </c>
-      <c r="K53" s="1">
-        <v>0</v>
-      </c>
-      <c r="L53" s="1">
+      <c r="H53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M53" s="1" t="s">
@@ -6810,13 +5969,13 @@
       <c r="N53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O53" s="5" t="n">
         <v>45536.5289351852</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="1">
-        <v>2.26638435014616e+19</v>
+    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>2.26638435014616E+019</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>22</v>
@@ -6827,22 +5986,22 @@
       <c r="D54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="1">
-        <v>100</v>
-      </c>
-      <c r="F54" s="1">
+      <c r="E54" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F54" s="1" t="n">
         <v>7.1</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="1" t="n">
         <v>14.08</v>
       </c>
-      <c r="H54" s="1">
-        <v>0</v>
-      </c>
-      <c r="K54" s="1">
-        <v>0</v>
-      </c>
-      <c r="L54" s="1">
+      <c r="H54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M54" s="1" t="s">
@@ -6851,13 +6010,13 @@
       <c r="N54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O54" s="2">
+      <c r="O54" s="5" t="n">
         <v>45537.36375</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="1">
-        <v>2.26653424838444e+19</v>
+    <row r="55" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>2.26653424838444E+019</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>22</v>
@@ -6868,22 +6027,22 @@
       <c r="D55" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="1" t="n">
         <v>7.09</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="1" t="n">
         <v>18.33</v>
       </c>
-      <c r="H55" s="1">
-        <v>0</v>
-      </c>
-      <c r="K55" s="1">
-        <v>0</v>
-      </c>
-      <c r="L55" s="1">
+      <c r="H55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M55" s="1" t="s">
@@ -6892,13 +6051,13 @@
       <c r="N55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O55" s="2">
+      <c r="O55" s="5" t="n">
         <v>45541.500150463</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="1">
-        <v>2.26662816792244e+19</v>
+    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>2.26662816792244E+019</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>22</v>
@@ -6909,22 +6068,22 @@
       <c r="D56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="1">
-        <v>100</v>
-      </c>
-      <c r="F56" s="1">
+      <c r="E56" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F56" s="1" t="n">
         <v>7.1</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="1" t="n">
         <v>14.08</v>
       </c>
-      <c r="H56" s="1">
-        <v>0</v>
-      </c>
-      <c r="K56" s="1">
-        <v>0</v>
-      </c>
-      <c r="L56" s="1">
+      <c r="H56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M56" s="1" t="s">
@@ -6933,13 +6092,13 @@
       <c r="N56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O56" s="2">
+      <c r="O56" s="5" t="n">
         <v>45544.0918402778</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="1">
-        <v>2.26666814373519e+19</v>
+    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>2.26666814373519E+019</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>22</v>
@@ -6950,22 +6109,22 @@
       <c r="D57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="1" t="n">
         <v>7.08</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="1" t="n">
         <v>12.42</v>
       </c>
-      <c r="H57" s="1">
-        <v>0</v>
-      </c>
-      <c r="K57" s="1">
-        <v>0</v>
-      </c>
-      <c r="L57" s="1">
+      <c r="H57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M57" s="1" t="s">
@@ -6974,13 +6133,13 @@
       <c r="N57" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O57" s="2">
+      <c r="O57" s="5" t="n">
         <v>45545.1949652778</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="1">
-        <v>2.26669705331676e+19</v>
+    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>2.26669705331676E+019</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>22</v>
@@ -6991,22 +6150,22 @@
       <c r="D58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="1">
-        <v>100</v>
-      </c>
-      <c r="F58" s="1">
+      <c r="E58" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F58" s="1" t="n">
         <v>7.09</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="1" t="n">
         <v>14.1</v>
       </c>
-      <c r="H58" s="1">
-        <v>0</v>
-      </c>
-      <c r="K58" s="1">
-        <v>0</v>
-      </c>
-      <c r="L58" s="1">
+      <c r="H58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M58" s="1" t="s">
@@ -7015,13 +6174,13 @@
       <c r="N58" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O58" s="2">
+      <c r="O58" s="5" t="n">
         <v>45545.9927199074</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="1">
-        <v>2.26671813527355e+19</v>
+    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>2.26671813527355E+019</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>22</v>
@@ -7032,22 +6191,22 @@
       <c r="D59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E59" s="1">
-        <v>100</v>
-      </c>
-      <c r="F59" s="1">
+      <c r="E59" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F59" s="1" t="n">
         <v>7.07</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="1" t="n">
         <v>14.14</v>
       </c>
-      <c r="H59" s="1">
-        <v>0</v>
-      </c>
-      <c r="K59" s="1">
-        <v>0</v>
-      </c>
-      <c r="L59" s="1">
+      <c r="H59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M59" s="1" t="s">
@@ -7056,13 +6215,13 @@
       <c r="N59" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O59" s="2">
+      <c r="O59" s="5" t="n">
         <v>45546.5744675926</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="1">
-        <v>2.26697185652291e+19</v>
+    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>2.26697185652291E+019</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>22</v>
@@ -7073,22 +6232,22 @@
       <c r="D60" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="1" t="n">
         <v>7.06</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60" s="1" t="n">
         <v>10.19</v>
       </c>
-      <c r="H60" s="1">
-        <v>0</v>
-      </c>
-      <c r="K60" s="1">
-        <v>0</v>
-      </c>
-      <c r="L60" s="1">
+      <c r="H60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M60" s="1" t="s">
@@ -7097,13 +6256,13 @@
       <c r="N60" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O60" s="2">
+      <c r="O60" s="5" t="n">
         <v>45553.5758449074</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="1">
-        <v>2.26702763141248e+19</v>
+    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>2.26702763141248E+019</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>22</v>
@@ -7114,22 +6273,22 @@
       <c r="D61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E61" s="1">
-        <v>100</v>
-      </c>
-      <c r="F61" s="1">
+      <c r="E61" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F61" s="1" t="n">
         <v>7.06</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="1" t="n">
         <v>14.16</v>
       </c>
-      <c r="H61" s="1">
-        <v>0</v>
-      </c>
-      <c r="K61" s="1">
-        <v>0</v>
-      </c>
-      <c r="L61" s="1">
+      <c r="H61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M61" s="1" t="s">
@@ -7138,13 +6297,13 @@
       <c r="N61" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O61" s="2">
+      <c r="O61" s="5" t="n">
         <v>45555.1149305556</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="1">
-        <v>2.26702847850628e+19</v>
+    <row r="62" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>2.26702847850628E+019</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>22</v>
@@ -7155,22 +6314,22 @@
       <c r="D62" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E62" s="1">
-        <v>100</v>
-      </c>
-      <c r="F62" s="1">
+      <c r="E62" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F62" s="1" t="n">
         <v>7.05</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="1" t="n">
         <v>14.18</v>
       </c>
-      <c r="H62" s="1">
-        <v>0</v>
-      </c>
-      <c r="K62" s="1">
-        <v>0</v>
-      </c>
-      <c r="L62" s="1">
+      <c r="H62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M62" s="1" t="s">
@@ -7179,13 +6338,13 @@
       <c r="N62" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O62" s="2">
+      <c r="O62" s="5" t="n">
         <v>45555.1383101852</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="1">
-        <v>2.26704554452279e+19</v>
+    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>2.26704554452279E+019</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>22</v>
@@ -7196,22 +6355,22 @@
       <c r="D63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="1">
-        <v>100</v>
-      </c>
-      <c r="F63" s="1">
+      <c r="E63" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F63" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="1" t="n">
         <v>14.28</v>
       </c>
-      <c r="H63" s="1">
-        <v>0</v>
-      </c>
-      <c r="K63" s="1">
-        <v>0</v>
-      </c>
-      <c r="L63" s="1">
+      <c r="H63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M63" s="1" t="s">
@@ -7220,13 +6379,13 @@
       <c r="N63" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O63" s="2">
+      <c r="O63" s="5" t="n">
         <v>45555.6092361111</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="1">
-        <v>2.26705870706876e+19</v>
+    <row r="64" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>2.26705870706876E+019</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>22</v>
@@ -7237,22 +6396,22 @@
       <c r="D64" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E64" s="1">
-        <v>100</v>
-      </c>
-      <c r="F64" s="1">
+      <c r="E64" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F64" s="1" t="n">
         <v>6.99</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="1" t="n">
         <v>14.3</v>
       </c>
-      <c r="H64" s="1">
-        <v>0</v>
-      </c>
-      <c r="K64" s="1">
-        <v>0</v>
-      </c>
-      <c r="L64" s="1">
+      <c r="H64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M64" s="1" t="s">
@@ -7261,13 +6420,13 @@
       <c r="N64" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O64" s="2">
+      <c r="O64" s="5" t="n">
         <v>45555.9724537037</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="1">
-        <v>2.26706864033593e+19</v>
+    <row r="65" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>2.26706864033593E+019</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>22</v>
@@ -7278,22 +6437,22 @@
       <c r="D65" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="1">
-        <v>100</v>
-      </c>
-      <c r="F65" s="1">
+      <c r="E65" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F65" s="1" t="n">
         <v>6.95</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="1" t="n">
         <v>14.38</v>
       </c>
-      <c r="H65" s="1">
-        <v>0</v>
-      </c>
-      <c r="K65" s="1">
-        <v>0</v>
-      </c>
-      <c r="L65" s="1">
+      <c r="H65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M65" s="1" t="s">
@@ -7302,13 +6461,13 @@
       <c r="N65" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O65" s="2">
+      <c r="O65" s="5" t="n">
         <v>45556.2465625</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="1">
-        <v>2.26707289483397e+19</v>
+    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>2.26707289483397E+019</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>22</v>
@@ -7319,22 +6478,22 @@
       <c r="D66" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="1" t="n">
         <v>6.92</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="1" t="n">
         <v>28.9</v>
       </c>
-      <c r="H66" s="1">
-        <v>0</v>
-      </c>
-      <c r="K66" s="1">
-        <v>0</v>
-      </c>
-      <c r="L66" s="1">
+      <c r="H66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M66" s="1" t="s">
@@ -7343,13 +6502,13 @@
       <c r="N66" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O66" s="2">
+      <c r="O66" s="5" t="n">
         <v>45556.3639699074</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="1">
-        <v>2.26709480767333e+19</v>
+    <row r="67" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>2.26709480767333E+019</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>22</v>
@@ -7360,22 +6519,22 @@
       <c r="D67" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E67" s="1">
-        <v>100</v>
-      </c>
-      <c r="F67" s="1">
+      <c r="E67" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F67" s="1" t="n">
         <v>6.94</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="1" t="n">
         <v>14.4</v>
       </c>
-      <c r="H67" s="1">
-        <v>0</v>
-      </c>
-      <c r="K67" s="1">
-        <v>0</v>
-      </c>
-      <c r="L67" s="1">
+      <c r="H67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M67" s="1" t="s">
@@ -7384,22 +6543,27 @@
       <c r="N67" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O67" s="2">
+      <c r="O67" s="5" t="n">
         <v>45556.9686458333</v>
       </c>
     </row>
-    <row r="68" spans="5:5">
-      <c r="E68" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="5:5">
-      <c r="E69" s="1">
+    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="1" t="n">
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>